--- a/published-data/fonds-solidarite/fds-2020-11-22/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-22/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43474</v>
+        <v>43806</v>
       </c>
       <c r="D2" t="n">
-        <v>64598180</v>
+        <v>65448919</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>102918</v>
+        <v>103642</v>
       </c>
       <c r="D3" t="n">
-        <v>155486078</v>
+        <v>157513003</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35084</v>
+        <v>35345</v>
       </c>
       <c r="D4" t="n">
-        <v>54708753</v>
+        <v>55690380</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10099</v>
+        <v>10186</v>
       </c>
       <c r="D5" t="n">
-        <v>16192493</v>
+        <v>16602300</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2616</v>
+        <v>2648</v>
       </c>
       <c r="D6" t="n">
-        <v>4392367</v>
+        <v>4542691</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D7" t="n">
-        <v>539351</v>
+        <v>561517</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>46250</v>
+        <v>46511</v>
       </c>
       <c r="D12" t="n">
-        <v>63066213</v>
+        <v>63518046</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10993</v>
+        <v>11072</v>
       </c>
       <c r="D13" t="n">
-        <v>16153153</v>
+        <v>16323310</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28797</v>
+        <v>28984</v>
       </c>
       <c r="D14" t="n">
-        <v>42786808</v>
+        <v>43177958</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9119</v>
+        <v>9184</v>
       </c>
       <c r="D15" t="n">
-        <v>13812965</v>
+        <v>13970920</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2427</v>
+        <v>2448</v>
       </c>
       <c r="D16" t="n">
-        <v>3711559</v>
+        <v>3790379</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="D17" t="n">
-        <v>816060</v>
+        <v>829171</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>11337</v>
+        <v>11406</v>
       </c>
       <c r="D20" t="n">
-        <v>14960322</v>
+        <v>15072545</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>14993</v>
+        <v>15082</v>
       </c>
       <c r="D21" t="n">
-        <v>21802183</v>
+        <v>21935752</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>34770</v>
+        <v>35009</v>
       </c>
       <c r="D22" t="n">
-        <v>51346125</v>
+        <v>51717992</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>11215</v>
+        <v>11289</v>
       </c>
       <c r="D23" t="n">
-        <v>16933859</v>
+        <v>17084285</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1256,10 +1256,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2993</v>
+        <v>3016</v>
       </c>
       <c r="D24" t="n">
-        <v>4586804</v>
+        <v>4645654</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="D25" t="n">
-        <v>1032137</v>
+        <v>1049301</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D26" t="n">
-        <v>102511</v>
+        <v>113569</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1370,10 +1370,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>12839</v>
+        <v>12895</v>
       </c>
       <c r="D27" t="n">
-        <v>17045372</v>
+        <v>17102974</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8829</v>
+        <v>8882</v>
       </c>
       <c r="D28" t="n">
-        <v>13003905</v>
+        <v>13115438</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>25192</v>
+        <v>25393</v>
       </c>
       <c r="D29" t="n">
-        <v>37534566</v>
+        <v>37942939</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8618</v>
+        <v>8687</v>
       </c>
       <c r="D30" t="n">
-        <v>13104938</v>
+        <v>13240982</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2210</v>
+        <v>2225</v>
       </c>
       <c r="D31" t="n">
-        <v>3396781</v>
+        <v>3412322</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="D32" t="n">
-        <v>745602</v>
+        <v>752430</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1636,10 +1636,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>9286</v>
+        <v>9330</v>
       </c>
       <c r="D34" t="n">
-        <v>12242389</v>
+        <v>12303513</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3840</v>
+        <v>3864</v>
       </c>
       <c r="D35" t="n">
-        <v>5661168</v>
+        <v>5725986</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8985</v>
+        <v>9027</v>
       </c>
       <c r="D36" t="n">
-        <v>13481121</v>
+        <v>13609236</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3514</v>
+        <v>3535</v>
       </c>
       <c r="D37" t="n">
-        <v>5371461</v>
+        <v>5424432</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D38" t="n">
-        <v>1379216</v>
+        <v>1382216</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D39" t="n">
-        <v>299686</v>
+        <v>312686</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2874</v>
+        <v>2890</v>
       </c>
       <c r="D41" t="n">
-        <v>3898519</v>
+        <v>3918725</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>19543</v>
+        <v>19688</v>
       </c>
       <c r="D42" t="n">
-        <v>28765263</v>
+        <v>29051467</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1978,10 +1978,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>56669</v>
+        <v>57053</v>
       </c>
       <c r="D43" t="n">
-        <v>84127399</v>
+        <v>84938228</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2016,10 +2016,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>20727</v>
+        <v>20857</v>
       </c>
       <c r="D44" t="n">
-        <v>31213664</v>
+        <v>31479258</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6254</v>
+        <v>6291</v>
       </c>
       <c r="D45" t="n">
-        <v>9464083</v>
+        <v>9537339</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1526</v>
+        <v>1546</v>
       </c>
       <c r="D46" t="n">
-        <v>2390784</v>
+        <v>2428276</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D47" t="n">
-        <v>185961</v>
+        <v>197461</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>18939</v>
+        <v>19044</v>
       </c>
       <c r="D50" t="n">
-        <v>25140979</v>
+        <v>25304450</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2453</v>
+        <v>2464</v>
       </c>
       <c r="D51" t="n">
-        <v>3638508</v>
+        <v>3669324</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8205</v>
+        <v>8246</v>
       </c>
       <c r="D52" t="n">
-        <v>12276953</v>
+        <v>12394528</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2358,10 +2358,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2757</v>
+        <v>2771</v>
       </c>
       <c r="D53" t="n">
-        <v>4266341</v>
+        <v>4328590</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="D54" t="n">
-        <v>1348873</v>
+        <v>1367798</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D55" t="n">
-        <v>388110</v>
+        <v>414110</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2472,10 +2472,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D56" t="n">
-        <v>56000</v>
+        <v>66000</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>8138</v>
+        <v>8161</v>
       </c>
       <c r="D57" t="n">
-        <v>11262785</v>
+        <v>11297552</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="D58" t="n">
-        <v>3488870</v>
+        <v>3512193</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2586,10 +2586,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4055</v>
+        <v>4061</v>
       </c>
       <c r="D59" t="n">
-        <v>8256020</v>
+        <v>8294542</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1609</v>
+        <v>1615</v>
       </c>
       <c r="D60" t="n">
-        <v>3292997</v>
+        <v>3324997</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D61" t="n">
-        <v>1087847</v>
+        <v>1092845</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2776,10 +2776,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2644</v>
+        <v>2650</v>
       </c>
       <c r="D64" t="n">
-        <v>4990157</v>
+        <v>5023301</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>17796</v>
+        <v>17938</v>
       </c>
       <c r="D65" t="n">
-        <v>26414694</v>
+        <v>26748775</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>50388</v>
+        <v>50762</v>
       </c>
       <c r="D66" t="n">
-        <v>75916698</v>
+        <v>76866629</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2890,10 +2890,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>17570</v>
+        <v>17687</v>
       </c>
       <c r="D67" t="n">
-        <v>27124267</v>
+        <v>27516181</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5147</v>
+        <v>5192</v>
       </c>
       <c r="D68" t="n">
-        <v>8046978</v>
+        <v>8195786</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1187</v>
+        <v>1200</v>
       </c>
       <c r="D69" t="n">
-        <v>1999408</v>
+        <v>2059572</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3004,10 +3004,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D70" t="n">
-        <v>211582</v>
+        <v>234582</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D71" t="n">
-        <v>24953</v>
+        <v>25619</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>16735</v>
+        <v>16842</v>
       </c>
       <c r="D73" t="n">
-        <v>22057543</v>
+        <v>22185213</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>66981</v>
+        <v>67739</v>
       </c>
       <c r="D74" t="n">
-        <v>103416391</v>
+        <v>105999286</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>180186</v>
+        <v>182072</v>
       </c>
       <c r="D75" t="n">
-        <v>281474917</v>
+        <v>288136551</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>76932</v>
+        <v>77710</v>
       </c>
       <c r="D76" t="n">
-        <v>124470312</v>
+        <v>128134555</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>25461</v>
+        <v>25726</v>
       </c>
       <c r="D77" t="n">
-        <v>42977301</v>
+        <v>44331916</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7071</v>
+        <v>7210</v>
       </c>
       <c r="D78" t="n">
-        <v>13358575</v>
+        <v>14163195</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="D79" t="n">
-        <v>1517835</v>
+        <v>1609974</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3574,10 +3574,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>65543</v>
+        <v>66330</v>
       </c>
       <c r="D85" t="n">
-        <v>90287259</v>
+        <v>91865385</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5290</v>
+        <v>5304</v>
       </c>
       <c r="D86" t="n">
-        <v>7714661</v>
+        <v>7751296</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>12925</v>
+        <v>12948</v>
       </c>
       <c r="D87" t="n">
-        <v>19205161</v>
+        <v>19281008</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3688,10 +3688,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4201</v>
+        <v>4210</v>
       </c>
       <c r="D88" t="n">
-        <v>6327098</v>
+        <v>6357598</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="D89" t="n">
-        <v>2217111</v>
+        <v>2221611</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D90" t="n">
-        <v>569012</v>
+        <v>570512</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6007</v>
+        <v>6026</v>
       </c>
       <c r="D93" t="n">
-        <v>8066412</v>
+        <v>8099791</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1908</v>
+        <v>1920</v>
       </c>
       <c r="D94" t="n">
-        <v>2797218</v>
+        <v>2820495</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3954,10 +3954,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6079</v>
+        <v>6109</v>
       </c>
       <c r="D95" t="n">
-        <v>9157889</v>
+        <v>9230878</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3992,10 +3992,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2170</v>
+        <v>2176</v>
       </c>
       <c r="D96" t="n">
-        <v>3299523</v>
+        <v>3324357</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D97" t="n">
-        <v>1216117</v>
+        <v>1217957</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4068,10 +4068,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D98" t="n">
-        <v>389436</v>
+        <v>399597</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4113</v>
+        <v>4139</v>
       </c>
       <c r="D101" t="n">
-        <v>5478283</v>
+        <v>5533699</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="D102" t="n">
-        <v>1857288</v>
+        <v>1863288</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4258,10 +4258,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="D103" t="n">
-        <v>1326948</v>
+        <v>1356212</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4410,10 +4410,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>15495</v>
+        <v>20490</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>12492</v>
+        <v>12598</v>
       </c>
       <c r="D108" t="n">
-        <v>18648121</v>
+        <v>18893194</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>32249</v>
+        <v>32441</v>
       </c>
       <c r="D109" t="n">
-        <v>48296781</v>
+        <v>48775678</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>10799</v>
+        <v>10864</v>
       </c>
       <c r="D110" t="n">
-        <v>16454339</v>
+        <v>16605028</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>3031</v>
+        <v>3068</v>
       </c>
       <c r="D111" t="n">
-        <v>4660638</v>
+        <v>4754131</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4600,10 +4600,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="D112" t="n">
-        <v>969698</v>
+        <v>1010851</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4638,10 +4638,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D113" t="n">
-        <v>177555</v>
+        <v>213219</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4752,10 +4752,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>10806</v>
+        <v>10856</v>
       </c>
       <c r="D116" t="n">
-        <v>14269194</v>
+        <v>14344366</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4790,10 +4790,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>34785</v>
+        <v>34995</v>
       </c>
       <c r="D117" t="n">
-        <v>50944306</v>
+        <v>51434996</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4828,10 +4828,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>73424</v>
+        <v>73846</v>
       </c>
       <c r="D118" t="n">
-        <v>108957340</v>
+        <v>109712185</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>23531</v>
+        <v>23661</v>
       </c>
       <c r="D119" t="n">
-        <v>35492248</v>
+        <v>35761294</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4904,10 +4904,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>6752</v>
+        <v>6780</v>
       </c>
       <c r="D120" t="n">
-        <v>10298688</v>
+        <v>10356144</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1404</v>
+        <v>1425</v>
       </c>
       <c r="D121" t="n">
-        <v>2238696</v>
+        <v>2292344</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4980,10 +4980,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D122" t="n">
-        <v>247291</v>
+        <v>257291</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5132,10 +5132,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>28514</v>
+        <v>28621</v>
       </c>
       <c r="D126" t="n">
-        <v>38067681</v>
+        <v>38241286</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5170,10 +5170,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>41805</v>
+        <v>42077</v>
       </c>
       <c r="D127" t="n">
-        <v>62158267</v>
+        <v>62815435</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5208,10 +5208,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>86711</v>
+        <v>87266</v>
       </c>
       <c r="D128" t="n">
-        <v>130497786</v>
+        <v>131993954</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>26550</v>
+        <v>26716</v>
       </c>
       <c r="D129" t="n">
-        <v>41322024</v>
+        <v>41975066</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5284,10 +5284,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>7284</v>
+        <v>7330</v>
       </c>
       <c r="D130" t="n">
-        <v>11453828</v>
+        <v>11628289</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5322,10 +5322,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1622</v>
+        <v>1644</v>
       </c>
       <c r="D131" t="n">
-        <v>2730980</v>
+        <v>2825647</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5474,10 +5474,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>35349</v>
+        <v>35543</v>
       </c>
       <c r="D135" t="n">
-        <v>47076523</v>
+        <v>47390342</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -5512,10 +5512,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>15189</v>
+        <v>15309</v>
       </c>
       <c r="D136" t="n">
-        <v>22238176</v>
+        <v>22441150</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5550,10 +5550,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>35918</v>
+        <v>36189</v>
       </c>
       <c r="D137" t="n">
-        <v>53149027</v>
+        <v>53550496</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5588,10 +5588,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>12687</v>
+        <v>12781</v>
       </c>
       <c r="D138" t="n">
-        <v>18974431</v>
+        <v>19124406</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5626,10 +5626,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>3368</v>
+        <v>3395</v>
       </c>
       <c r="D139" t="n">
-        <v>5104139</v>
+        <v>5176733</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5664,10 +5664,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="D140" t="n">
-        <v>1019144</v>
+        <v>1056476</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5702,10 +5702,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D141" t="n">
-        <v>107323</v>
+        <v>117989</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5816,10 +5816,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>11981</v>
+        <v>12047</v>
       </c>
       <c r="D144" t="n">
-        <v>15976521</v>
+        <v>16099912</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>41293</v>
+        <v>41617</v>
       </c>
       <c r="D145" t="n">
-        <v>62106325</v>
+        <v>63088046</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5892,10 +5892,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>94447</v>
+        <v>95118</v>
       </c>
       <c r="D146" t="n">
-        <v>144687701</v>
+        <v>146889600</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5930,10 +5930,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>28264</v>
+        <v>28461</v>
       </c>
       <c r="D147" t="n">
-        <v>44802871</v>
+        <v>45512580</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5968,10 +5968,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>7623</v>
+        <v>7695</v>
       </c>
       <c r="D148" t="n">
-        <v>12416688</v>
+        <v>12767855</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -6006,10 +6006,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1969</v>
+        <v>1991</v>
       </c>
       <c r="D149" t="n">
-        <v>3477891</v>
+        <v>3574375</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D150" t="n">
-        <v>386276</v>
+        <v>402276</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -6082,10 +6082,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D151" t="n">
-        <v>41500</v>
+        <v>51500</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -6120,10 +6120,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>32914</v>
+        <v>33130</v>
       </c>
       <c r="D152" t="n">
-        <v>44654150</v>
+        <v>45027918</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2020-11-22/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-22/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43806</v>
+        <v>44138</v>
       </c>
       <c r="D2" t="n">
-        <v>65448919</v>
+        <v>66299658</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>103642</v>
+        <v>104366</v>
       </c>
       <c r="D3" t="n">
-        <v>157513003</v>
+        <v>159539928</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35345</v>
+        <v>35606</v>
       </c>
       <c r="D4" t="n">
-        <v>55690380</v>
+        <v>56672007</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10186</v>
+        <v>10273</v>
       </c>
       <c r="D5" t="n">
-        <v>16602300</v>
+        <v>17012107</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2648</v>
+        <v>2680</v>
       </c>
       <c r="D6" t="n">
-        <v>4542691</v>
+        <v>4693015</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D7" t="n">
-        <v>561517</v>
+        <v>583683</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>46511</v>
+        <v>46772</v>
       </c>
       <c r="D12" t="n">
-        <v>63518046</v>
+        <v>63969879</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>11072</v>
+        <v>11151</v>
       </c>
       <c r="D13" t="n">
-        <v>16323310</v>
+        <v>16493467</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28984</v>
+        <v>29171</v>
       </c>
       <c r="D14" t="n">
-        <v>43177958</v>
+        <v>43569108</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9184</v>
+        <v>9249</v>
       </c>
       <c r="D15" t="n">
-        <v>13970920</v>
+        <v>14128875</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2448</v>
+        <v>2469</v>
       </c>
       <c r="D16" t="n">
-        <v>3790379</v>
+        <v>3869199</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="D17" t="n">
-        <v>829171</v>
+        <v>842282</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>11406</v>
+        <v>11475</v>
       </c>
       <c r="D20" t="n">
-        <v>15072545</v>
+        <v>15184768</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15082</v>
+        <v>15171</v>
       </c>
       <c r="D21" t="n">
-        <v>21935752</v>
+        <v>22069321</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>35009</v>
+        <v>35248</v>
       </c>
       <c r="D22" t="n">
-        <v>51717992</v>
+        <v>52089859</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>11289</v>
+        <v>11363</v>
       </c>
       <c r="D23" t="n">
-        <v>17084285</v>
+        <v>17234711</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1256,10 +1256,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3016</v>
+        <v>3039</v>
       </c>
       <c r="D24" t="n">
-        <v>4645654</v>
+        <v>4704504</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="D25" t="n">
-        <v>1049301</v>
+        <v>1066465</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D26" t="n">
-        <v>113569</v>
+        <v>124627</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1370,10 +1370,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>12895</v>
+        <v>12951</v>
       </c>
       <c r="D27" t="n">
-        <v>17102974</v>
+        <v>17160576</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8882</v>
+        <v>8935</v>
       </c>
       <c r="D28" t="n">
-        <v>13115438</v>
+        <v>13226971</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>25393</v>
+        <v>25594</v>
       </c>
       <c r="D29" t="n">
-        <v>37942939</v>
+        <v>38351312</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8687</v>
+        <v>8756</v>
       </c>
       <c r="D30" t="n">
-        <v>13240982</v>
+        <v>13377026</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2225</v>
+        <v>2240</v>
       </c>
       <c r="D31" t="n">
-        <v>3412322</v>
+        <v>3427863</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="D32" t="n">
-        <v>752430</v>
+        <v>759258</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1636,10 +1636,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>9330</v>
+        <v>9374</v>
       </c>
       <c r="D34" t="n">
-        <v>12303513</v>
+        <v>12364637</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3864</v>
+        <v>3888</v>
       </c>
       <c r="D35" t="n">
-        <v>5725986</v>
+        <v>5790804</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>9027</v>
+        <v>9069</v>
       </c>
       <c r="D36" t="n">
-        <v>13609236</v>
+        <v>13737351</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3535</v>
+        <v>3556</v>
       </c>
       <c r="D37" t="n">
-        <v>5424432</v>
+        <v>5477403</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="D38" t="n">
-        <v>1382216</v>
+        <v>1385216</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D39" t="n">
-        <v>312686</v>
+        <v>325686</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2890</v>
+        <v>2906</v>
       </c>
       <c r="D41" t="n">
-        <v>3918725</v>
+        <v>3938931</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>19688</v>
+        <v>19833</v>
       </c>
       <c r="D42" t="n">
-        <v>29051467</v>
+        <v>29337671</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1978,10 +1978,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>57053</v>
+        <v>57437</v>
       </c>
       <c r="D43" t="n">
-        <v>84938228</v>
+        <v>85749057</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2016,10 +2016,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>20857</v>
+        <v>20987</v>
       </c>
       <c r="D44" t="n">
-        <v>31479258</v>
+        <v>31744852</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6291</v>
+        <v>6328</v>
       </c>
       <c r="D45" t="n">
-        <v>9537339</v>
+        <v>9610595</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1546</v>
+        <v>1566</v>
       </c>
       <c r="D46" t="n">
-        <v>2428276</v>
+        <v>2465768</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D47" t="n">
-        <v>197461</v>
+        <v>208961</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>19044</v>
+        <v>19149</v>
       </c>
       <c r="D50" t="n">
-        <v>25304450</v>
+        <v>25467921</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2464</v>
+        <v>2475</v>
       </c>
       <c r="D51" t="n">
-        <v>3669324</v>
+        <v>3700140</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8246</v>
+        <v>8287</v>
       </c>
       <c r="D52" t="n">
-        <v>12394528</v>
+        <v>12512103</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2358,10 +2358,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2771</v>
+        <v>2785</v>
       </c>
       <c r="D53" t="n">
-        <v>4328590</v>
+        <v>4390839</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="D54" t="n">
-        <v>1367798</v>
+        <v>1386723</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D55" t="n">
-        <v>414110</v>
+        <v>440110</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2472,10 +2472,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" t="n">
-        <v>66000</v>
+        <v>76000</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>8161</v>
+        <v>8184</v>
       </c>
       <c r="D57" t="n">
-        <v>11297552</v>
+        <v>11332319</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="D58" t="n">
-        <v>3512193</v>
+        <v>3535516</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2586,10 +2586,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4061</v>
+        <v>4067</v>
       </c>
       <c r="D59" t="n">
-        <v>8294542</v>
+        <v>8333064</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1615</v>
+        <v>1621</v>
       </c>
       <c r="D60" t="n">
-        <v>3324997</v>
+        <v>3356997</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D61" t="n">
-        <v>1092845</v>
+        <v>1097843</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2776,10 +2776,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2650</v>
+        <v>2656</v>
       </c>
       <c r="D64" t="n">
-        <v>5023301</v>
+        <v>5056445</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>17938</v>
+        <v>18080</v>
       </c>
       <c r="D65" t="n">
-        <v>26748775</v>
+        <v>27082856</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>50762</v>
+        <v>51136</v>
       </c>
       <c r="D66" t="n">
-        <v>76866629</v>
+        <v>77816560</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2890,10 +2890,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>17687</v>
+        <v>17804</v>
       </c>
       <c r="D67" t="n">
-        <v>27516181</v>
+        <v>27908095</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5192</v>
+        <v>5237</v>
       </c>
       <c r="D68" t="n">
-        <v>8195786</v>
+        <v>8344594</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1200</v>
+        <v>1213</v>
       </c>
       <c r="D69" t="n">
-        <v>2059572</v>
+        <v>2119736</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3004,10 +3004,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D70" t="n">
-        <v>234582</v>
+        <v>257582</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D71" t="n">
-        <v>25619</v>
+        <v>26285</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>16842</v>
+        <v>16949</v>
       </c>
       <c r="D73" t="n">
-        <v>22185213</v>
+        <v>22312883</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>67739</v>
+        <v>68497</v>
       </c>
       <c r="D74" t="n">
-        <v>105999286</v>
+        <v>108582181</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>182072</v>
+        <v>183958</v>
       </c>
       <c r="D75" t="n">
-        <v>288136551</v>
+        <v>294798185</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>77710</v>
+        <v>78488</v>
       </c>
       <c r="D76" t="n">
-        <v>128134555</v>
+        <v>131798798</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>25726</v>
+        <v>25991</v>
       </c>
       <c r="D77" t="n">
-        <v>44331916</v>
+        <v>45686531</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7210</v>
+        <v>7349</v>
       </c>
       <c r="D78" t="n">
-        <v>14163195</v>
+        <v>14967815</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="D79" t="n">
-        <v>1609974</v>
+        <v>1702113</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3574,10 +3574,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>66330</v>
+        <v>67117</v>
       </c>
       <c r="D85" t="n">
-        <v>91865385</v>
+        <v>93443511</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5304</v>
+        <v>5318</v>
       </c>
       <c r="D86" t="n">
-        <v>7751296</v>
+        <v>7787931</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>12948</v>
+        <v>12971</v>
       </c>
       <c r="D87" t="n">
-        <v>19281008</v>
+        <v>19356855</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3688,10 +3688,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4210</v>
+        <v>4219</v>
       </c>
       <c r="D88" t="n">
-        <v>6357598</v>
+        <v>6388098</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="D89" t="n">
-        <v>2221611</v>
+        <v>2226111</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D90" t="n">
-        <v>570512</v>
+        <v>572012</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6026</v>
+        <v>6045</v>
       </c>
       <c r="D93" t="n">
-        <v>8099791</v>
+        <v>8133170</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1920</v>
+        <v>1932</v>
       </c>
       <c r="D94" t="n">
-        <v>2820495</v>
+        <v>2843772</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3954,10 +3954,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6109</v>
+        <v>6139</v>
       </c>
       <c r="D95" t="n">
-        <v>9230878</v>
+        <v>9303867</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3992,10 +3992,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2176</v>
+        <v>2182</v>
       </c>
       <c r="D96" t="n">
-        <v>3324357</v>
+        <v>3349191</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D97" t="n">
-        <v>1217957</v>
+        <v>1219797</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4068,10 +4068,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D98" t="n">
-        <v>399597</v>
+        <v>409758</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4139</v>
+        <v>4165</v>
       </c>
       <c r="D101" t="n">
-        <v>5533699</v>
+        <v>5589115</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="D102" t="n">
-        <v>1863288</v>
+        <v>1869288</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4258,10 +4258,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="D103" t="n">
-        <v>1356212</v>
+        <v>1385476</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4410,10 +4410,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D107" t="n">
-        <v>20490</v>
+        <v>25485</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>12598</v>
+        <v>12704</v>
       </c>
       <c r="D108" t="n">
-        <v>18893194</v>
+        <v>19138267</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>32441</v>
+        <v>32633</v>
       </c>
       <c r="D109" t="n">
-        <v>48775678</v>
+        <v>49254575</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>10864</v>
+        <v>10929</v>
       </c>
       <c r="D110" t="n">
-        <v>16605028</v>
+        <v>16755717</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>3068</v>
+        <v>3105</v>
       </c>
       <c r="D111" t="n">
-        <v>4754131</v>
+        <v>4847624</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4600,10 +4600,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="D112" t="n">
-        <v>1010851</v>
+        <v>1052004</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4638,10 +4638,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D113" t="n">
-        <v>213219</v>
+        <v>248883</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4752,10 +4752,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>10856</v>
+        <v>10906</v>
       </c>
       <c r="D116" t="n">
-        <v>14344366</v>
+        <v>14419538</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4790,10 +4790,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>34995</v>
+        <v>35205</v>
       </c>
       <c r="D117" t="n">
-        <v>51434996</v>
+        <v>51925686</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4828,10 +4828,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>73846</v>
+        <v>74268</v>
       </c>
       <c r="D118" t="n">
-        <v>109712185</v>
+        <v>110467030</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>23661</v>
+        <v>23791</v>
       </c>
       <c r="D119" t="n">
-        <v>35761294</v>
+        <v>36030340</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4904,10 +4904,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>6780</v>
+        <v>6808</v>
       </c>
       <c r="D120" t="n">
-        <v>10356144</v>
+        <v>10413600</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1425</v>
+        <v>1446</v>
       </c>
       <c r="D121" t="n">
-        <v>2292344</v>
+        <v>2345992</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4980,10 +4980,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D122" t="n">
-        <v>257291</v>
+        <v>267291</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5132,10 +5132,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>28621</v>
+        <v>28728</v>
       </c>
       <c r="D126" t="n">
-        <v>38241286</v>
+        <v>38414891</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5170,10 +5170,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>42077</v>
+        <v>42349</v>
       </c>
       <c r="D127" t="n">
-        <v>62815435</v>
+        <v>63472603</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5208,10 +5208,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>87266</v>
+        <v>87821</v>
       </c>
       <c r="D128" t="n">
-        <v>131993954</v>
+        <v>133490122</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>26716</v>
+        <v>26882</v>
       </c>
       <c r="D129" t="n">
-        <v>41975066</v>
+        <v>42628108</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5284,10 +5284,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>7330</v>
+        <v>7376</v>
       </c>
       <c r="D130" t="n">
-        <v>11628289</v>
+        <v>11802750</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5322,10 +5322,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1644</v>
+        <v>1666</v>
       </c>
       <c r="D131" t="n">
-        <v>2825647</v>
+        <v>2920314</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5474,10 +5474,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>35543</v>
+        <v>35737</v>
       </c>
       <c r="D135" t="n">
-        <v>47390342</v>
+        <v>47704161</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -5512,10 +5512,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>15309</v>
+        <v>15429</v>
       </c>
       <c r="D136" t="n">
-        <v>22441150</v>
+        <v>22644124</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5550,10 +5550,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>36189</v>
+        <v>36460</v>
       </c>
       <c r="D137" t="n">
-        <v>53550496</v>
+        <v>53951965</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5588,10 +5588,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>12781</v>
+        <v>12875</v>
       </c>
       <c r="D138" t="n">
-        <v>19124406</v>
+        <v>19274381</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5626,10 +5626,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>3395</v>
+        <v>3422</v>
       </c>
       <c r="D139" t="n">
-        <v>5176733</v>
+        <v>5249327</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5664,10 +5664,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="D140" t="n">
-        <v>1056476</v>
+        <v>1093808</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5702,10 +5702,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D141" t="n">
-        <v>117989</v>
+        <v>128655</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5816,10 +5816,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>12047</v>
+        <v>12113</v>
       </c>
       <c r="D144" t="n">
-        <v>16099912</v>
+        <v>16223303</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>41617</v>
+        <v>41941</v>
       </c>
       <c r="D145" t="n">
-        <v>63088046</v>
+        <v>64069767</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5892,10 +5892,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>95118</v>
+        <v>95789</v>
       </c>
       <c r="D146" t="n">
-        <v>146889600</v>
+        <v>149091499</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5930,10 +5930,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>28461</v>
+        <v>28658</v>
       </c>
       <c r="D147" t="n">
-        <v>45512580</v>
+        <v>46222289</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5968,10 +5968,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>7695</v>
+        <v>7767</v>
       </c>
       <c r="D148" t="n">
-        <v>12767855</v>
+        <v>13119022</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -6006,10 +6006,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1991</v>
+        <v>2013</v>
       </c>
       <c r="D149" t="n">
-        <v>3574375</v>
+        <v>3670859</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D150" t="n">
-        <v>402276</v>
+        <v>418276</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -6082,10 +6082,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D151" t="n">
-        <v>51500</v>
+        <v>61500</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -6120,10 +6120,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>33130</v>
+        <v>33346</v>
       </c>
       <c r="D152" t="n">
-        <v>45027918</v>
+        <v>45401686</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
